--- a/Code/Results/Cases/Case_5_229/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_229/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8106344575419371</v>
+        <v>0.2573958041829485</v>
       </c>
       <c r="C2">
-        <v>0.1442997653447833</v>
+        <v>0.04748089165424574</v>
       </c>
       <c r="D2">
-        <v>0.06478587521080215</v>
+        <v>0.03165052555379333</v>
       </c>
       <c r="E2">
-        <v>0.3346069581480435</v>
+        <v>0.1647267180267136</v>
       </c>
       <c r="F2">
-        <v>0.4883944379069476</v>
+        <v>0.7170521533020562</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.2833240738150948</v>
+        <v>0.5570539027569694</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9032083157733268</v>
+        <v>0.2750332023945532</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5958672098962694</v>
+        <v>0.2202528939603496</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.429004397062954</v>
+        <v>2.47108682482488</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.708095458672318</v>
+        <v>0.2256133626913197</v>
       </c>
       <c r="C3">
-        <v>0.1281501674125565</v>
+        <v>0.04230195993052632</v>
       </c>
       <c r="D3">
-        <v>0.05868340956606488</v>
+        <v>0.02950460241034136</v>
       </c>
       <c r="E3">
-        <v>0.2914463619981689</v>
+        <v>0.153940755802644</v>
       </c>
       <c r="F3">
-        <v>0.4639746625625847</v>
+        <v>0.7163095727574884</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.2858142966784385</v>
+        <v>0.5619326161867058</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7911944337375303</v>
+        <v>0.2399888997760513</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5157696186092338</v>
+        <v>0.1977350549761994</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.395457382034223</v>
+        <v>2.481820132211851</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6451479778389739</v>
+        <v>0.2060647825611284</v>
       </c>
       <c r="C4">
-        <v>0.1182319794955475</v>
+        <v>0.03910215581566945</v>
       </c>
       <c r="D4">
-        <v>0.05492176220458589</v>
+        <v>0.02817525147609246</v>
       </c>
       <c r="E4">
-        <v>0.2654630942990295</v>
+        <v>0.1474358730610774</v>
       </c>
       <c r="F4">
-        <v>0.4499975487051984</v>
+        <v>0.7163156781840172</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.2880199145762568</v>
+        <v>0.5652477437201249</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7224180744163675</v>
+        <v>0.2184091649824609</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4669807259519061</v>
+        <v>0.1839742000649167</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.37813888515339</v>
+        <v>2.48992116368197</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6194909984938022</v>
+        <v>0.198090472907694</v>
       </c>
       <c r="C5">
-        <v>0.1141880377863345</v>
+        <v>0.0377932470180582</v>
       </c>
       <c r="D5">
-        <v>0.05338490168108478</v>
+        <v>0.02763060759778568</v>
       </c>
       <c r="E5">
-        <v>0.254991016027887</v>
+        <v>0.1448144618963596</v>
       </c>
       <c r="F5">
-        <v>0.4445437462667385</v>
+        <v>0.7164343057102229</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.2890817324957489</v>
+        <v>0.5666789925479563</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6943817810373503</v>
+        <v>0.2096000144404826</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4471825752448879</v>
+        <v>0.1783829147458533</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.371865611136158</v>
+        <v>2.49360203497055</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6152301177973811</v>
+        <v>0.1967658687564438</v>
       </c>
       <c r="C6">
-        <v>0.1135163658495628</v>
+        <v>0.03757560534734239</v>
       </c>
       <c r="D6">
-        <v>0.05312946082111125</v>
+        <v>0.02753999429189236</v>
       </c>
       <c r="E6">
-        <v>0.253258771779052</v>
+        <v>0.1443809465394281</v>
       </c>
       <c r="F6">
-        <v>0.4436523746383969</v>
+        <v>0.7164610168747743</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.2892676901797095</v>
+        <v>0.566921499146261</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6897255428466025</v>
+        <v>0.2081363550997537</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4438997504323012</v>
+        <v>0.1774554746049688</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.370870154021972</v>
+        <v>2.494236162507875</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.644801991262284</v>
+        <v>0.2059572704447419</v>
       </c>
       <c r="C7">
-        <v>0.11817745246843</v>
+        <v>0.03908452344474256</v>
       </c>
       <c r="D7">
-        <v>0.05490105192517092</v>
+        <v>0.02816791801046037</v>
       </c>
       <c r="E7">
-        <v>0.2653214109155613</v>
+        <v>0.1474004011273919</v>
       </c>
       <c r="F7">
-        <v>0.4499230346167664</v>
+        <v>0.7163168078561455</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.288033583764193</v>
+        <v>0.5652667209518931</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.722040017257882</v>
+        <v>0.2182904227715881</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4667134009952392</v>
+        <v>0.183898727756663</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.378051158616515</v>
+        <v>2.489969268410391</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7752713268213256</v>
+        <v>0.2464445435215907</v>
       </c>
       <c r="C8">
-        <v>0.1387308376951637</v>
+        <v>0.04569935633928424</v>
       </c>
       <c r="D8">
-        <v>0.06268463395599611</v>
+        <v>0.03091306692943618</v>
       </c>
       <c r="E8">
-        <v>0.319609191396907</v>
+        <v>0.1609831416518688</v>
       </c>
       <c r="F8">
-        <v>0.4797550249862397</v>
+        <v>0.7167001816052903</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.2840378713905984</v>
+        <v>0.5586697228257549</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8645798545743162</v>
+        <v>0.2629631383053095</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.568159206007671</v>
+        <v>0.2124751952888957</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.416731692892625</v>
+        <v>2.47447396015481</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.031630476976744</v>
+        <v>0.3255538798997577</v>
       </c>
       <c r="C9">
-        <v>0.1790986287223291</v>
+        <v>0.05851154655238133</v>
       </c>
       <c r="D9">
-        <v>0.07784486549462599</v>
+        <v>0.03620197935609326</v>
       </c>
       <c r="E9">
-        <v>0.4308441623087162</v>
+        <v>0.1885647269042394</v>
       </c>
       <c r="F9">
-        <v>0.5469775508823886</v>
+        <v>0.7211214530595029</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.281910536485551</v>
+        <v>0.5482712584070697</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.144577412892858</v>
+        <v>0.3500553480225221</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7709149567945204</v>
+        <v>0.2690345788772888</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.52054291603929</v>
+        <v>2.456088234992194</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.220922732932621</v>
+        <v>0.3834852254432519</v>
       </c>
       <c r="C10">
-        <v>0.2089184216004014</v>
+        <v>0.06782640898629211</v>
       </c>
       <c r="D10">
-        <v>0.0889410735415197</v>
+        <v>0.04002908673437844</v>
       </c>
       <c r="E10">
-        <v>0.5164894690279525</v>
+        <v>0.2094237722106271</v>
       </c>
       <c r="F10">
-        <v>0.6026534837946329</v>
+        <v>0.7266129998833577</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.2843286997649095</v>
+        <v>0.5421825645107319</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.351305216096023</v>
+        <v>0.4137155257719769</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9232881916636941</v>
+        <v>0.3109158923864754</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.616727541132519</v>
+        <v>2.449917869584255</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.307395377769666</v>
+        <v>0.409795378727523</v>
       </c>
       <c r="C11">
-        <v>0.2225493498465028</v>
+        <v>0.07204248513725986</v>
       </c>
       <c r="D11">
-        <v>0.09398500528418907</v>
+        <v>0.04175717665963674</v>
       </c>
       <c r="E11">
-        <v>0.5565484736794133</v>
+        <v>0.2190463014861734</v>
       </c>
       <c r="F11">
-        <v>0.6295787500698324</v>
+        <v>0.7295997812108084</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.286412858893641</v>
+        <v>0.5397502699875112</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.445746051884441</v>
+        <v>0.4426025116473795</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9936083140542422</v>
+        <v>0.3300421186969231</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.66549513438369</v>
+        <v>2.448709000461747</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.340205944143179</v>
+        <v>0.4197517723568183</v>
       </c>
       <c r="C12">
-        <v>0.2277231618548541</v>
+        <v>0.07363590661034891</v>
       </c>
       <c r="D12">
-        <v>0.09589490249280885</v>
+        <v>0.04240968049591487</v>
       </c>
       <c r="E12">
-        <v>0.5718980480208202</v>
+        <v>0.2227096001105764</v>
       </c>
       <c r="F12">
-        <v>0.6400251980249578</v>
+        <v>0.7308011475503662</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.2873543811212436</v>
+        <v>0.5388778192227868</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.481581169409566</v>
+        <v>0.4535304850825526</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.020404718078424</v>
+        <v>0.3372954822992753</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.68474481461584</v>
+        <v>2.448481378540009</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.333136479744155</v>
+        <v>0.4176077902129407</v>
       </c>
       <c r="C13">
-        <v>0.2266083076983563</v>
+        <v>0.07329287415457486</v>
       </c>
       <c r="D13">
-        <v>0.0954835707979953</v>
+        <v>0.0422692365560593</v>
       </c>
       <c r="E13">
-        <v>0.5685838594824375</v>
+        <v>0.2219197741283665</v>
       </c>
       <c r="F13">
-        <v>0.637763885348491</v>
+        <v>0.7305392824520851</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.2871446538013736</v>
+        <v>0.5390635541028352</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.473859962901514</v>
+        <v>0.4511774432106677</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.014625783990589</v>
+        <v>0.3357328657208072</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.680563220549942</v>
+        <v>2.448520159406854</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.310093336309421</v>
+        <v>0.410614634119213</v>
       </c>
       <c r="C14">
-        <v>0.2229747446638726</v>
+        <v>0.07217363960768353</v>
       </c>
       <c r="D14">
-        <v>0.09414213379633196</v>
+        <v>0.04181089654312586</v>
       </c>
       <c r="E14">
-        <v>0.5578075493031491</v>
+        <v>0.219347291987539</v>
       </c>
       <c r="F14">
-        <v>0.630433042876632</v>
+        <v>0.7296972082864315</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.286487201646338</v>
+        <v>0.5396775183547646</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.448692686903087</v>
+        <v>0.4435017839176396</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9958093694778043</v>
+        <v>0.330638643273069</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.667062766071496</v>
+        <v>2.448685659302669</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.295987649912888</v>
+        <v>0.4063302382385814</v>
       </c>
       <c r="C15">
-        <v>0.2207507365074548</v>
+        <v>0.07148766892133551</v>
       </c>
       <c r="D15">
-        <v>0.09332046079592971</v>
+        <v>0.04152990338573659</v>
       </c>
       <c r="E15">
-        <v>0.5512308919880695</v>
+        <v>0.2177741131480744</v>
       </c>
       <c r="F15">
-        <v>0.6259759427292906</v>
+        <v>0.7291905755645089</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.2861046602727413</v>
+        <v>0.5400599214475577</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.433286900897826</v>
+        <v>0.4387987865819127</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9843063338183811</v>
+        <v>0.3275196755406284</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.658897154443338</v>
+        <v>2.448817015564657</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.215279936601178</v>
+        <v>0.3817648855556115</v>
       </c>
       <c r="C16">
-        <v>0.2080291504807406</v>
+        <v>0.06755044540766164</v>
       </c>
       <c r="D16">
-        <v>0.08861139919820715</v>
+        <v>0.0399158898858758</v>
       </c>
       <c r="E16">
-        <v>0.5138954728010603</v>
+        <v>0.2087976268839071</v>
       </c>
       <c r="F16">
-        <v>0.6009277406891087</v>
+        <v>0.7264276455719383</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.2842132018128574</v>
+        <v>0.5423483182619222</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.34514257606574</v>
+        <v>0.4118261948931377</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9187147658278292</v>
+        <v>0.3096674422559715</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.613646496875276</v>
+        <v>2.450029059170333</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.1658702566844</v>
+        <v>0.3666834462312352</v>
       </c>
       <c r="C17">
-        <v>0.200243506293873</v>
+        <v>0.06512959344172486</v>
       </c>
       <c r="D17">
-        <v>0.08572185682909605</v>
+        <v>0.0389224215774675</v>
       </c>
       <c r="E17">
-        <v>0.4912879183365817</v>
+        <v>0.2033252420597549</v>
       </c>
       <c r="F17">
-        <v>0.5859849866699065</v>
+        <v>0.7248578823874468</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.2833123364174668</v>
+        <v>0.5438386677224152</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.291181466601614</v>
+        <v>0.3952604986911581</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8787497314552866</v>
+        <v>0.2987346857489257</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.587212983347996</v>
+        <v>2.451182160968472</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.137484406104562</v>
+        <v>0.3580049731122585</v>
       </c>
       <c r="C18">
-        <v>0.195771429303278</v>
+        <v>0.0637351815080649</v>
       </c>
       <c r="D18">
-        <v>0.08405948512817218</v>
+        <v>0.03834979454769183</v>
       </c>
       <c r="E18">
-        <v>0.4783866160881445</v>
+        <v>0.2001902361395054</v>
       </c>
       <c r="F18">
-        <v>0.5775393995429283</v>
+        <v>0.7240009859789751</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.2828861224238004</v>
+        <v>0.5447276382183475</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.260181082916006</v>
+        <v>0.3857255682301002</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8558559753173043</v>
+        <v>0.2924534377089572</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.572476994660349</v>
+        <v>2.451995790778568</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.12787877973912</v>
+        <v>0.3550659144171107</v>
       </c>
       <c r="C19">
-        <v>0.1942582184859134</v>
+        <v>0.06326271534368288</v>
       </c>
       <c r="D19">
-        <v>0.08349655668544642</v>
+        <v>0.0381557060405342</v>
       </c>
       <c r="E19">
-        <v>0.4740353256787699</v>
+        <v>0.1991309278267295</v>
       </c>
       <c r="F19">
-        <v>0.5747048704773974</v>
+        <v>0.723718752233772</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.2827572887033973</v>
+        <v>0.5450340809793914</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.249690737172841</v>
+        <v>0.3824960553068024</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8481198520809059</v>
+        <v>0.2903279144330071</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.567566195377395</v>
+        <v>2.452297091811971</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.171126464342507</v>
+        <v>0.3682893116560138</v>
       </c>
       <c r="C20">
-        <v>0.201071660123219</v>
+        <v>0.0653875048328274</v>
       </c>
       <c r="D20">
-        <v>0.08602949032284357</v>
+        <v>0.03902830348704356</v>
       </c>
       <c r="E20">
-        <v>0.4936838238098673</v>
+        <v>0.2039064846067049</v>
       </c>
       <c r="F20">
-        <v>0.5875600933710672</v>
+        <v>0.7250202260695957</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.283398644054035</v>
+        <v>0.5436767297859362</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.296921823975765</v>
+        <v>0.3970246506635817</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8829942826476653</v>
+        <v>0.2998977734480235</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.589978021482324</v>
+        <v>2.451043843320434</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.316859785601054</v>
+        <v>0.4126688790654214</v>
       </c>
       <c r="C21">
-        <v>0.2240416604944926</v>
+        <v>0.07250247087846162</v>
       </c>
       <c r="D21">
-        <v>0.09453614642975339</v>
+        <v>0.04194557358052009</v>
       </c>
       <c r="E21">
-        <v>0.5609677390224945</v>
+        <v>0.2201023624359593</v>
       </c>
       <c r="F21">
-        <v>0.6325793202023533</v>
+        <v>0.7299426364013542</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.2866760881093953</v>
+        <v>0.5394958623971249</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.456082834870045</v>
+        <v>0.4457566109230697</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.001331460527489</v>
+        <v>0.332134650079567</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.671006427008535</v>
+        <v>2.448630798958959</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.412492115916905</v>
+        <v>0.4416342682096399</v>
       </c>
       <c r="C22">
-        <v>0.2391256479723296</v>
+        <v>0.0771343316283577</v>
       </c>
       <c r="D22">
-        <v>0.1000951948609767</v>
+        <v>0.04384116759167256</v>
       </c>
       <c r="E22">
-        <v>0.6060031159296955</v>
+        <v>0.2308008174482126</v>
       </c>
       <c r="F22">
-        <v>0.6634724113329185</v>
+        <v>0.7335697260520675</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.289711378724494</v>
+        <v>0.5370467745601069</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.560533734033271</v>
+        <v>0.4775419941501582</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.079661337680776</v>
+        <v>0.3532655477519171</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.728555926557931</v>
+        <v>2.448395390555277</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.361411310937257</v>
+        <v>0.4261786458274059</v>
       </c>
       <c r="C23">
-        <v>0.2310675485799152</v>
+        <v>0.07466390100798037</v>
       </c>
       <c r="D23">
-        <v>0.09712813016859911</v>
+        <v>0.04283047211082902</v>
       </c>
       <c r="E23">
-        <v>0.5818619391003566</v>
+        <v>0.2250803857136816</v>
       </c>
       <c r="F23">
-        <v>0.6468424175049279</v>
+        <v>0.7315963412949174</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.2880058765030284</v>
+        <v>0.5383279469125561</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.504741705546479</v>
+        <v>0.4605835357412786</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.037756463926065</v>
+        <v>0.341981893494868</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.697398839339485</v>
+        <v>2.448398155227068</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.168750070195557</v>
+        <v>0.3675633246329255</v>
       </c>
       <c r="C24">
-        <v>0.2006972395332411</v>
+        <v>0.06527091128747031</v>
       </c>
       <c r="D24">
-        <v>0.08589041278767695</v>
+        <v>0.03898043884797886</v>
       </c>
       <c r="E24">
-        <v>0.4926003373214272</v>
+        <v>0.2036436701688302</v>
       </c>
       <c r="F24">
-        <v>0.5868475369048625</v>
+        <v>0.724946688512297</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.2833593395350213</v>
+        <v>0.5437498417900564</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.294326539204206</v>
+        <v>0.3962271120681748</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8810750652725332</v>
+        <v>0.29937192860978</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.58872651646422</v>
+        <v>2.451105907339979</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9621612321996622</v>
+        <v>0.3041849854042198</v>
       </c>
       <c r="C25">
-        <v>0.1681591986482971</v>
+        <v>0.05506269063980085</v>
       </c>
       <c r="D25">
-        <v>0.07375261062033189</v>
+        <v>0.03478140592350343</v>
       </c>
       <c r="E25">
-        <v>0.4001413154046034</v>
+        <v>0.1810000314860218</v>
       </c>
       <c r="F25">
-        <v>0.5277619872188453</v>
+        <v>0.7195318920116591</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.2818251905866767</v>
+        <v>0.550812202364348</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.068708114588958</v>
+        <v>0.3265508511610449</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7155485201833898</v>
+        <v>0.2536770058462992</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.489181416873578</v>
+        <v>2.459775065628975</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_229/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_229/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2573958041829485</v>
+        <v>0.8106344575418802</v>
       </c>
       <c r="C2">
-        <v>0.04748089165424574</v>
+        <v>0.1442997653449964</v>
       </c>
       <c r="D2">
-        <v>0.03165052555379333</v>
+        <v>0.06478587521080215</v>
       </c>
       <c r="E2">
-        <v>0.1647267180267136</v>
+        <v>0.3346069581480435</v>
       </c>
       <c r="F2">
-        <v>0.7170521533020562</v>
+        <v>0.4883944379069405</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
-        <v>0.5570539027569694</v>
+        <v>0.283324073815109</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2750332023945532</v>
+        <v>0.9032083157732984</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2202528939603496</v>
+        <v>0.5958672098962694</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.47108682482488</v>
+        <v>1.429004397062982</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2256133626913197</v>
+        <v>0.7080954586725738</v>
       </c>
       <c r="C3">
-        <v>0.04230195993052632</v>
+        <v>0.1281501674124854</v>
       </c>
       <c r="D3">
-        <v>0.02950460241034136</v>
+        <v>0.05868340956607199</v>
       </c>
       <c r="E3">
-        <v>0.153940755802644</v>
+        <v>0.2914463619981547</v>
       </c>
       <c r="F3">
-        <v>0.7163095727574884</v>
+        <v>0.4639746625625776</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0.5619326161867058</v>
+        <v>0.2858142966784349</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2399888997760513</v>
+        <v>0.7911944337376156</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1977350549761994</v>
+        <v>0.5157696186092195</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.481820132211851</v>
+        <v>1.395457382034266</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2060647825611284</v>
+        <v>0.6451479778389739</v>
       </c>
       <c r="C4">
-        <v>0.03910215581566945</v>
+        <v>0.1182319794955475</v>
       </c>
       <c r="D4">
-        <v>0.02817525147609246</v>
+        <v>0.05492176220442246</v>
       </c>
       <c r="E4">
-        <v>0.1474358730610774</v>
+        <v>0.2654630942990579</v>
       </c>
       <c r="F4">
-        <v>0.7163156781840172</v>
+        <v>0.4499975487051984</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0.5652477437201249</v>
+        <v>0.2880199145762461</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2184091649824609</v>
+        <v>0.7224180744163817</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1839742000649167</v>
+        <v>0.4669807259519132</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.48992116368197</v>
+        <v>1.37813888515339</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.198090472907694</v>
+        <v>0.6194909984940296</v>
       </c>
       <c r="C5">
-        <v>0.0377932470180582</v>
+        <v>0.1141880377865192</v>
       </c>
       <c r="D5">
-        <v>0.02763060759778568</v>
+        <v>0.05338490168120558</v>
       </c>
       <c r="E5">
-        <v>0.1448144618963596</v>
+        <v>0.2549910160278799</v>
       </c>
       <c r="F5">
-        <v>0.7164343057102229</v>
+        <v>0.4445437462667172</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0.5666789925479563</v>
+        <v>0.2890817324957489</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2096000144404826</v>
+        <v>0.6943817810372934</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1783829147458533</v>
+        <v>0.4471825752448666</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.49360203497055</v>
+        <v>1.371865611136101</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1967658687564438</v>
+        <v>0.6152301177973811</v>
       </c>
       <c r="C6">
-        <v>0.03757560534734239</v>
+        <v>0.1135163658493781</v>
       </c>
       <c r="D6">
-        <v>0.02753999429189236</v>
+        <v>0.05312946082086256</v>
       </c>
       <c r="E6">
-        <v>0.1443809465394281</v>
+        <v>0.2532587717790662</v>
       </c>
       <c r="F6">
-        <v>0.7164610168747743</v>
+        <v>0.4436523746383827</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0.566921499146261</v>
+        <v>0.2892676901797238</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2081363550997537</v>
+        <v>0.6897255428466025</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1774554746049688</v>
+        <v>0.4438997504323012</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.494236162507875</v>
+        <v>1.370870154021972</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2059572704447419</v>
+        <v>0.6448019912621703</v>
       </c>
       <c r="C7">
-        <v>0.03908452344474256</v>
+        <v>0.1181774524684585</v>
       </c>
       <c r="D7">
-        <v>0.02816791801046037</v>
+        <v>0.05490105192519934</v>
       </c>
       <c r="E7">
-        <v>0.1474004011273919</v>
+        <v>0.2653214109155542</v>
       </c>
       <c r="F7">
-        <v>0.7163168078561455</v>
+        <v>0.4499230346167522</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0.5652667209518931</v>
+        <v>0.2880335837642001</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2182904227715881</v>
+        <v>0.7220400172579104</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.183898727756663</v>
+        <v>0.466713400995225</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.489969268410391</v>
+        <v>1.378051158616529</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2464445435215907</v>
+        <v>0.7752713268213256</v>
       </c>
       <c r="C8">
-        <v>0.04569935633928424</v>
+        <v>0.1387308376946095</v>
       </c>
       <c r="D8">
-        <v>0.03091306692943618</v>
+        <v>0.06268463395623058</v>
       </c>
       <c r="E8">
-        <v>0.1609831416518688</v>
+        <v>0.3196091913969141</v>
       </c>
       <c r="F8">
-        <v>0.7167001816052903</v>
+        <v>0.4797550249862326</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0.5586697228257549</v>
+        <v>0.2840378713905913</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2629631383053095</v>
+        <v>0.8645798545742878</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2124751952888957</v>
+        <v>0.5681592060076852</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.47447396015481</v>
+        <v>1.416731692892625</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3255538798997577</v>
+        <v>1.031630476976801</v>
       </c>
       <c r="C9">
-        <v>0.05851154655238133</v>
+        <v>0.1790986287224001</v>
       </c>
       <c r="D9">
-        <v>0.03620197935609326</v>
+        <v>0.07784486549456915</v>
       </c>
       <c r="E9">
-        <v>0.1885647269042394</v>
+        <v>0.4308441623087162</v>
       </c>
       <c r="F9">
-        <v>0.7211214530595029</v>
+        <v>0.5469775508823886</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0.5482712584070697</v>
+        <v>0.2819105364855545</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3500553480225221</v>
+        <v>1.144577412892858</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2690345788772888</v>
+        <v>0.7709149567945204</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.456088234992194</v>
+        <v>1.52054291603929</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3834852254432519</v>
+        <v>1.220922732932507</v>
       </c>
       <c r="C10">
-        <v>0.06782640898629211</v>
+        <v>0.2089184216002167</v>
       </c>
       <c r="D10">
-        <v>0.04002908673437844</v>
+        <v>0.08894107354157654</v>
       </c>
       <c r="E10">
-        <v>0.2094237722106271</v>
+        <v>0.5164894690279525</v>
       </c>
       <c r="F10">
-        <v>0.7266129998833577</v>
+        <v>0.6026534837946471</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0.5421825645107319</v>
+        <v>0.2843286997649166</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4137155257719769</v>
+        <v>1.351305216096108</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3109158923864754</v>
+        <v>0.9232881916636728</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.449917869584255</v>
+        <v>1.616727541132576</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.409795378727523</v>
+        <v>1.307395377769637</v>
       </c>
       <c r="C11">
-        <v>0.07204248513725986</v>
+        <v>0.2225493498467159</v>
       </c>
       <c r="D11">
-        <v>0.04175717665963674</v>
+        <v>0.09398500528401144</v>
       </c>
       <c r="E11">
-        <v>0.2190463014861734</v>
+        <v>0.5565484736794062</v>
       </c>
       <c r="F11">
-        <v>0.7295997812108084</v>
+        <v>0.6295787500698253</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0.5397502699875112</v>
+        <v>0.2864128588936516</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4426025116473795</v>
+        <v>1.445746051884441</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3300421186969231</v>
+        <v>0.993608314054228</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.448709000461747</v>
+        <v>1.665495134383661</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4197517723568183</v>
+        <v>1.340205944143264</v>
       </c>
       <c r="C12">
-        <v>0.07363590661034891</v>
+        <v>0.2277231618549393</v>
       </c>
       <c r="D12">
-        <v>0.04240968049591487</v>
+        <v>0.09589490249297228</v>
       </c>
       <c r="E12">
-        <v>0.2227096001105764</v>
+        <v>0.571898048020806</v>
       </c>
       <c r="F12">
-        <v>0.7308011475503662</v>
+        <v>0.640025198024972</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0.5388778192227868</v>
+        <v>0.2873543811212542</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4535304850825526</v>
+        <v>1.481581169409594</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3372954822992753</v>
+        <v>1.020404718078446</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.448481378540009</v>
+        <v>1.684744814615897</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4176077902129407</v>
+        <v>1.333136479744184</v>
       </c>
       <c r="C13">
-        <v>0.07329287415457486</v>
+        <v>0.2266083076988821</v>
       </c>
       <c r="D13">
-        <v>0.0422692365560593</v>
+        <v>0.09548357079819425</v>
       </c>
       <c r="E13">
-        <v>0.2219197741283665</v>
+        <v>0.5685838594824304</v>
       </c>
       <c r="F13">
-        <v>0.7305392824520851</v>
+        <v>0.6377638853485053</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0.5390635541028352</v>
+        <v>0.2871446538013736</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4511774432106677</v>
+        <v>1.473859962901486</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3357328657208072</v>
+        <v>1.014625783990589</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.448520159406854</v>
+        <v>1.680563220549971</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.410614634119213</v>
+        <v>1.310093336309421</v>
       </c>
       <c r="C14">
-        <v>0.07217363960768353</v>
+        <v>0.2229747446635315</v>
       </c>
       <c r="D14">
-        <v>0.04181089654312586</v>
+        <v>0.09414213379654512</v>
       </c>
       <c r="E14">
-        <v>0.219347291987539</v>
+        <v>0.557807549303142</v>
       </c>
       <c r="F14">
-        <v>0.7296972082864315</v>
+        <v>0.6304330428766463</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0.5396775183547646</v>
+        <v>0.286487201646338</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4435017839176396</v>
+        <v>1.448692686903058</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.330638643273069</v>
+        <v>0.9958093694778043</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.448685659302669</v>
+        <v>1.667062766071496</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4063302382385814</v>
+        <v>1.295987649912831</v>
       </c>
       <c r="C15">
-        <v>0.07148766892133551</v>
+        <v>0.2207507365069716</v>
       </c>
       <c r="D15">
-        <v>0.04152990338573659</v>
+        <v>0.09332046079592971</v>
       </c>
       <c r="E15">
-        <v>0.2177741131480744</v>
+        <v>0.5512308919880624</v>
       </c>
       <c r="F15">
-        <v>0.7291905755645089</v>
+        <v>0.6259759427292835</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0.5400599214475577</v>
+        <v>0.286104660272759</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4387987865819127</v>
+        <v>1.433286900897713</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3275196755406284</v>
+        <v>0.984306333818374</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.448817015564657</v>
+        <v>1.658897154443366</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3817648855556115</v>
+        <v>1.215279936601178</v>
       </c>
       <c r="C16">
-        <v>0.06755044540766164</v>
+        <v>0.2080291504805842</v>
       </c>
       <c r="D16">
-        <v>0.0399158898858758</v>
+        <v>0.08861139919820715</v>
       </c>
       <c r="E16">
-        <v>0.2087976268839071</v>
+        <v>0.513895472801039</v>
       </c>
       <c r="F16">
-        <v>0.7264276455719383</v>
+        <v>0.6009277406891087</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0.5423483182619222</v>
+        <v>0.2842132018128574</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4118261948931377</v>
+        <v>1.345142576065626</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3096674422559715</v>
+        <v>0.9187147658278292</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.450029059170333</v>
+        <v>1.613646496875305</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3666834462312352</v>
+        <v>1.165870256684343</v>
       </c>
       <c r="C17">
-        <v>0.06512959344172486</v>
+        <v>0.2002435062937167</v>
       </c>
       <c r="D17">
-        <v>0.0389224215774675</v>
+        <v>0.08572185682920264</v>
       </c>
       <c r="E17">
-        <v>0.2033252420597549</v>
+        <v>0.4912879183365675</v>
       </c>
       <c r="F17">
-        <v>0.7248578823874468</v>
+        <v>0.5859849866699065</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0.5438386677224152</v>
+        <v>0.2833123364174739</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3952604986911581</v>
+        <v>1.291181466601586</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2987346857489257</v>
+        <v>0.8787497314552937</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.451182160968472</v>
+        <v>1.587212983347968</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3580049731122585</v>
+        <v>1.137484406104619</v>
       </c>
       <c r="C18">
-        <v>0.0637351815080649</v>
+        <v>0.1957714293030506</v>
       </c>
       <c r="D18">
-        <v>0.03834979454769183</v>
+        <v>0.08405948512840666</v>
       </c>
       <c r="E18">
-        <v>0.2001902361395054</v>
+        <v>0.4783866160881516</v>
       </c>
       <c r="F18">
-        <v>0.7240009859789751</v>
+        <v>0.5775393995429141</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0.5447276382183475</v>
+        <v>0.2828861224237933</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3857255682301002</v>
+        <v>1.260181082915977</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2924534377089572</v>
+        <v>0.8558559753172972</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.451995790778568</v>
+        <v>1.572476994660263</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3550659144171107</v>
+        <v>1.127878779739177</v>
       </c>
       <c r="C19">
-        <v>0.06326271534368288</v>
+        <v>0.1942582184859987</v>
       </c>
       <c r="D19">
-        <v>0.0381557060405342</v>
+        <v>0.08349655668556721</v>
       </c>
       <c r="E19">
-        <v>0.1991309278267295</v>
+        <v>0.4740353256787699</v>
       </c>
       <c r="F19">
-        <v>0.723718752233772</v>
+        <v>0.5747048704774116</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0.5450340809793914</v>
+        <v>0.2827572887033902</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3824960553068024</v>
+        <v>1.249690737172784</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2903279144330071</v>
+        <v>0.8481198520809059</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.452297091811971</v>
+        <v>1.567566195377424</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3682893116560138</v>
+        <v>1.171126464342564</v>
       </c>
       <c r="C20">
-        <v>0.0653875048328274</v>
+        <v>0.2010716601232048</v>
       </c>
       <c r="D20">
-        <v>0.03902830348704356</v>
+        <v>0.08602949032294305</v>
       </c>
       <c r="E20">
-        <v>0.2039064846067049</v>
+        <v>0.4936838238098815</v>
       </c>
       <c r="F20">
-        <v>0.7250202260695957</v>
+        <v>0.5875600933710814</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0.5436767297859362</v>
+        <v>0.2833986440540173</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3970246506635817</v>
+        <v>1.296921823975907</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2998977734480235</v>
+        <v>0.8829942826476653</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.451043843320434</v>
+        <v>1.589978021482295</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4126688790654214</v>
+        <v>1.316859785601054</v>
       </c>
       <c r="C21">
-        <v>0.07250247087846162</v>
+        <v>0.22404166049472</v>
       </c>
       <c r="D21">
-        <v>0.04194557358052009</v>
+        <v>0.09453614642957575</v>
       </c>
       <c r="E21">
-        <v>0.2201023624359593</v>
+        <v>0.5609677390224803</v>
       </c>
       <c r="F21">
-        <v>0.7299426364013542</v>
+        <v>0.6325793202023675</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0.5394958623971249</v>
+        <v>0.2866760881094237</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4457566109230697</v>
+        <v>1.456082834869989</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.332134650079567</v>
+        <v>1.001331460527481</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.448630798958959</v>
+        <v>1.671006427008479</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4416342682096399</v>
+        <v>1.412492115916706</v>
       </c>
       <c r="C22">
-        <v>0.0771343316283577</v>
+        <v>0.2391256479723296</v>
       </c>
       <c r="D22">
-        <v>0.04384116759167256</v>
+        <v>0.100095194860927</v>
       </c>
       <c r="E22">
-        <v>0.2308008174482126</v>
+        <v>0.6060031159296813</v>
       </c>
       <c r="F22">
-        <v>0.7335697260520675</v>
+        <v>0.6634724113329185</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0.5370467745601069</v>
+        <v>0.2897113787245225</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4775419941501582</v>
+        <v>1.560533734033186</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3532655477519171</v>
+        <v>1.079661337680768</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.448395390555277</v>
+        <v>1.728555926557874</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4261786458274059</v>
+        <v>1.3614113109372</v>
       </c>
       <c r="C23">
-        <v>0.07466390100798037</v>
+        <v>0.2310675485800289</v>
       </c>
       <c r="D23">
-        <v>0.04283047211082902</v>
+        <v>0.09712813016823674</v>
       </c>
       <c r="E23">
-        <v>0.2250803857136816</v>
+        <v>0.5818619391003068</v>
       </c>
       <c r="F23">
-        <v>0.7315963412949174</v>
+        <v>0.6468424175049492</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0.5383279469125561</v>
+        <v>0.2880058765030142</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4605835357412786</v>
+        <v>1.504741705546536</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.341981893494868</v>
+        <v>1.037756463926051</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.448398155227068</v>
+        <v>1.697398839339542</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3675633246329255</v>
+        <v>1.168750070195529</v>
       </c>
       <c r="C24">
-        <v>0.06527091128747031</v>
+        <v>0.2006972395332838</v>
       </c>
       <c r="D24">
-        <v>0.03898043884797886</v>
+        <v>0.08589041278765563</v>
       </c>
       <c r="E24">
-        <v>0.2036436701688302</v>
+        <v>0.4926003373214414</v>
       </c>
       <c r="F24">
-        <v>0.724946688512297</v>
+        <v>0.5868475369048554</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0.5437498417900564</v>
+        <v>0.2833593395350213</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3962271120681748</v>
+        <v>1.294326539204263</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.29937192860978</v>
+        <v>0.8810750652725545</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.451105907339979</v>
+        <v>1.588726516464277</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3041849854042198</v>
+        <v>0.9621612321994064</v>
       </c>
       <c r="C25">
-        <v>0.05506269063980085</v>
+        <v>0.1681591986478281</v>
       </c>
       <c r="D25">
-        <v>0.03478140592350343</v>
+        <v>0.07375261062021821</v>
       </c>
       <c r="E25">
-        <v>0.1810000314860218</v>
+        <v>0.4001413154045963</v>
       </c>
       <c r="F25">
-        <v>0.7195318920116591</v>
+        <v>0.5277619872188595</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0.550812202364348</v>
+        <v>0.2818251905866767</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3265508511610449</v>
+        <v>1.068708114588986</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2536770058462992</v>
+        <v>0.7155485201833756</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.459775065628975</v>
+        <v>1.489181416873635</v>
       </c>
     </row>
   </sheetData>
